--- a/Data/ads.xlsx
+++ b/Data/ads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,27 +558,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>315838073</t>
+          <t>312106411</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/315838073</t>
+          <t>https://cian.ru/rent/commercial/312106411</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Сдается торговая площадь, 47,3 м²</t>
+          <t>Сдается помещение свободного назначения, 14,6 – 65,1 м²</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Москва , НАО (Новомосковский) , Скандинавия жилой комплекс , к35.1.4 На карте</t>
+          <t>Москва , ЦАО , р-н Басманный , ул. Земляной Вал , 25 На карте</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Москва, Скандинавия жилой комплекс, к35.1.4</t>
+          <t>Москва, ул. Земляной Вал, 25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -589,10 +589,14 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>55.7598196</v>
+      </c>
+      <c r="L2" t="n">
+        <v>37.6582178</v>
+      </c>
       <c r="M2" t="n">
-        <v>47.3</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -603,7 +607,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:00Z</t>
+          <t>2025-10-15T17:57:47Z</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -611,7 +615,11 @@
           <t>active</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>lat = 55.7598196, lng = 37.6582178</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -621,27 +629,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>306870927</t>
+          <t>318459091</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/306870927</t>
+          <t>https://cian.ru/rent/commercial/318459091</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Сдается торговая площадь, 123 м²</t>
+          <t>Сдается торговая площадь  (B+)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Москва , НАО (Новомосковский) , бул. Скандинавский , 12 На карте</t>
+          <t>Москва , СВАО , р-н Бутырский , Огородный проезд , 10 На карте</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Москва, бул. Скандинавский, 12</t>
+          <t>Москва, Огородный проезд, 10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -653,13 +661,13 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>55.5624401</v>
+        <v>55.8135124</v>
       </c>
       <c r="L3" t="n">
-        <v>37.5016852</v>
+        <v>37.6073459</v>
       </c>
       <c r="M3" t="n">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -670,7 +678,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:01Z</t>
+          <t>2025-10-15T17:57:49Z</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -680,7 +688,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>lat = 55.5624401, lng = 37.5016852</t>
+          <t>lat = 55.8135124, lng = 37.6073459</t>
         </is>
       </c>
     </row>
@@ -692,27 +700,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>321193674</t>
+          <t>321842209</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/321193674</t>
+          <t>https://cian.ru/rent/commercial/321842209</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Сдается торговая площадь, 65,4 м²</t>
+          <t>Сдается торговая площадь, 50 м²</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Москва , НАО (Новомосковский) , ул. Лобановский Лес , 7 На карте</t>
+          <t>Москва , ЮВАО , р-н Выхино-Жулебино , ул. Авиаконструктора Миля , 8к1 На карте</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Москва, ул. Лобановский Лес, 7</t>
+          <t>Москва, ул. Авиаконструктора Миля, 8к1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -724,13 +732,13 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>55.5966803</v>
+        <v>55.684724</v>
       </c>
       <c r="L4" t="n">
-        <v>37.4336911</v>
+        <v>37.8530812</v>
       </c>
       <c r="M4" t="n">
-        <v>65.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -741,7 +749,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:03Z</t>
+          <t>2025-10-15T17:57:53Z</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -751,7 +759,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>lat = 55.5966803, lng = 37.4336911</t>
+          <t>lat = 55.684724, lng = 37.8530812</t>
         </is>
       </c>
     </row>
@@ -763,27 +771,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>322421750</t>
+          <t>320918698</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322421750</t>
+          <t>https://cian.ru/rent/commercial/320918698</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Сдается торговая площадь, 79,8 м²</t>
+          <t>Сдается торговая площадь, 100 м²</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Москва , НАО (Новомосковский) , Родные кварталы жилой комплекс , 2 На карте</t>
+          <t>Москва , ЮВАО , р-н Выхино-Жулебино , ул. Авиаконструктора Миля , 8к1 На карте</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Москва, Родные кварталы жилой комплекс, 2</t>
+          <t>Москва, ул. Авиаконструктора Миля, 8к1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -794,10 +802,14 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>55.684724</v>
+      </c>
+      <c r="L5" t="n">
+        <v>37.8530812</v>
+      </c>
       <c r="M5" t="n">
-        <v>79.8</v>
+        <v>100</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +820,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:05Z</t>
+          <t>2025-10-15T17:58:09Z</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -816,7 +828,11 @@
           <t>active</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>lat = 55.684724, lng = 37.8530812</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -826,27 +842,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>309338074</t>
+          <t>317141439</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/309338074</t>
+          <t>https://cian.ru/rent/commercial/317141439</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Сдается торговая площадь  (B)</t>
+          <t>Сдается торговая площадь, 138,5 м²</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Москва , НАО (Новомосковский) , Киевское шоссе, 22-й км , 4с2кГ На карте</t>
+          <t>Москва , ЦАО , р-н Басманный , ул. Земляной Вал , 25 На карте</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Москва, Киевское шоссе, 22-й км, 4с2кГ</t>
+          <t>Москва, ул. Земляной Вал, 25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -857,10 +873,14 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>55.7598196</v>
+      </c>
+      <c r="L6" t="n">
+        <v>37.6582178</v>
+      </c>
       <c r="M6" t="n">
-        <v>54</v>
+        <v>138.5</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -871,7 +891,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:10Z</t>
+          <t>2025-10-15T17:58:11Z</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -879,7 +899,11 @@
           <t>active</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>lat = 55.7598196, lng = 37.6582178</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -889,27 +913,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>322099769</t>
+          <t>289475542</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322099769</t>
+          <t>https://cian.ru/rent/commercial/289475542</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Сдается офис  (B+)</t>
+          <t>Сдается офис  (B)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Москва , ВАО , р-н Сокольники , ул. Шумкина , 20С1 На карте</t>
+          <t>Москва , ЮЗАО , р-н Черемушки , Научный проезд , 8С1 На карте</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Москва, ул. Шумкина, 20С1</t>
+          <t>Москва, Научный проезд, 8С1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -921,13 +945,13 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>55.7872269</v>
+        <v>55.6558026</v>
       </c>
       <c r="L7" t="n">
-        <v>37.6708365</v>
+        <v>37.5518492</v>
       </c>
       <c r="M7" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -938,7 +962,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:12Z</t>
+          <t>2025-10-15T17:58:14Z</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -948,7 +972,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>lat = 55.7872269, lng = 37.6708365</t>
+          <t>lat = 55.6558026, lng = 37.5518492</t>
         </is>
       </c>
     </row>
@@ -960,12 +984,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>322449196</t>
+          <t>319555714</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322449196</t>
+          <t>https://cian.ru/rent/commercial/319555714</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -975,12 +999,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Москва , ВАО , р-н Сокольники , ул. Шумкина , 20С1 На карте</t>
+          <t>Москва , ЮЗАО , р-н Теплый Стан , ул. Академика Варги , 8К1 На карте</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Москва, ул. Шумкина, 20С1</t>
+          <t>Москва, ул. Академика Варги, 8К1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -992,13 +1016,13 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>55.7872269</v>
+        <v>55.6302697</v>
       </c>
       <c r="L8" t="n">
-        <v>37.6708365</v>
+        <v>37.4742535</v>
       </c>
       <c r="M8" t="n">
-        <v>45.1</v>
+        <v>90</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1009,7 +1033,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:13Z</t>
+          <t>2025-10-15T17:58:30Z</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1019,7 +1043,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>lat = 55.7872269, lng = 37.6708365</t>
+          <t>lat = 55.6302697, lng = 37.4742535</t>
         </is>
       </c>
     </row>
@@ -1031,27 +1055,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>306510959</t>
+          <t>319098792</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/306510959</t>
+          <t>https://cian.ru/rent/commercial/319098792</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Сдается торговая площадь, 27,4 – 53,3 м²</t>
+          <t>Сдается офис  (B+)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Москва , ВАО , р-н Соколиная гора , Большая Семеновская ул. , 20 На карте</t>
+          <t>Москва , ВАО , р-н Сокольники , ул. Шумкина , 20С1 На карте</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Москва, Большая Семеновская ул., 20</t>
+          <t>Москва, ул. Шумкина, 20С1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1063,13 +1087,13 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>55.7812139</v>
+        <v>55.7872269</v>
       </c>
       <c r="L9" t="n">
-        <v>37.7061209</v>
+        <v>37.6708365</v>
       </c>
       <c r="M9" t="n">
-        <v>53.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1104,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:21Z</t>
+          <t>2025-10-15T17:58:33Z</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1090,7 +1114,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>lat = 55.7812139, lng = 37.7061209</t>
+          <t>lat = 55.7872269, lng = 37.6708365</t>
         </is>
       </c>
     </row>
@@ -1102,27 +1126,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>322800584</t>
+          <t>299732301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322800584</t>
+          <t>https://cian.ru/rent/commercial/299732301</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Сдается офис  (B)</t>
+          <t>Сдается офис  (А)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Москва , ЗАО , р-н Тропарево-Никулино , Ленинский просп. , 158 На карте</t>
+          <t>Москва , ЦАО , р-н Замоскворечье , Павелецкая пл. , 2С2 На карте</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Москва, Ленинский просп., 158</t>
+          <t>Москва, Павелецкая пл., 2С2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1134,13 +1158,13 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>55.6514491</v>
+        <v>55.7301796</v>
       </c>
       <c r="L10" t="n">
-        <v>37.4830886</v>
+        <v>37.6358025</v>
       </c>
       <c r="M10" t="n">
-        <v>56.8</v>
+        <v>175</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1151,7 +1175,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:26Z</t>
+          <t>2025-10-15T17:58:42Z</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1161,7 +1185,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>lat = 55.6514491, lng = 37.4830886</t>
+          <t>lat = 55.7301796, lng = 37.6358025</t>
         </is>
       </c>
     </row>
@@ -1173,27 +1197,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>322800561</t>
+          <t>322421750</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322800561</t>
+          <t>https://cian.ru/rent/commercial/322421750</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Сдается офис  (B)</t>
+          <t>Сдается торговая площадь, 79,8 м²</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Москва , ЗАО , р-н Тропарево-Никулино , Ленинский просп. , 158 На карте</t>
+          <t>Москва , НАО (Новомосковский) , Родные кварталы жилой комплекс , 2 На карте</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Москва, Ленинский просп., 158</t>
+          <t>Москва, Родные кварталы жилой комплекс, 2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1204,14 +1228,10 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>55.6514491</v>
-      </c>
-      <c r="L11" t="n">
-        <v>37.4830886</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>111.3</v>
+        <v>79.8</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1222,7 +1242,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:30Z</t>
+          <t>2025-10-15T17:58:53Z</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1230,11 +1250,7 @@
           <t>active</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>lat = 55.6514491, lng = 37.4830886</t>
-        </is>
-      </c>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1244,27 +1260,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>319985587</t>
+          <t>306870927</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/319985587</t>
+          <t>https://cian.ru/rent/commercial/306870927</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Сдается офис  (А)</t>
+          <t>Сдается торговая площадь, 123 м²</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Москва , САО , р-н Беговой , ул. 1-я Ямского Поля , 1к1 На карте</t>
+          <t>Москва , НАО (Новомосковский) , бул. Скандинавский , 12 На карте</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Москва, ул. 1-я Ямского Поля, 1к1</t>
+          <t>Москва, бул. Скандинавский, 12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1275,10 +1291,14 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>55.5624401</v>
+      </c>
+      <c r="L12" t="n">
+        <v>37.5016852</v>
+      </c>
       <c r="M12" t="n">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1289,7 +1309,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:34Z</t>
+          <t>2025-10-15T17:58:54Z</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1297,7 +1317,11 @@
           <t>active</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>lat = 55.5624401, lng = 37.5016852</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1307,27 +1331,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>319963884</t>
+          <t>322099769</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/319963884</t>
+          <t>https://cian.ru/rent/commercial/322099769</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения  (B)</t>
+          <t>Сдается офис  (B+)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Мещанский , Большой Сухаревский пер. , 23С2 На карте</t>
+          <t>Москва , ВАО , р-н Сокольники , ул. Шумкина , 20С1 На карте</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Москва, Большой Сухаревский пер., 23С2</t>
+          <t>Москва, ул. Шумкина, 20С1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1339,13 +1363,13 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>55.7710238</v>
+        <v>55.7872269</v>
       </c>
       <c r="L13" t="n">
-        <v>37.6318062</v>
+        <v>37.6708365</v>
       </c>
       <c r="M13" t="n">
-        <v>107.9</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1356,7 +1380,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:36Z</t>
+          <t>2025-10-15T17:58:58Z</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1366,7 +1390,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>lat = 55.7710238, lng = 37.6318062</t>
+          <t>lat = 55.7872269, lng = 37.6708365</t>
         </is>
       </c>
     </row>
@@ -1378,27 +1402,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>320542453</t>
+          <t>322449196</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/320542453</t>
+          <t>https://cian.ru/rent/commercial/322449196</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 155 м²</t>
+          <t>Сдается офис  (B+)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Москва , ЗАО , р-н Филевский парк , Береговой проезд , 1Б На карте</t>
+          <t>Москва , ВАО , р-н Сокольники , ул. Шумкина , 20С1 На карте</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Москва, Береговой проезд, 1Б</t>
+          <t>Москва, ул. Шумкина, 20С1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1410,13 +1434,13 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>55.7553678</v>
+        <v>55.7872269</v>
       </c>
       <c r="L14" t="n">
-        <v>37.5147229</v>
+        <v>37.6708365</v>
       </c>
       <c r="M14" t="n">
-        <v>155</v>
+        <v>45.1</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1427,7 +1451,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:39Z</t>
+          <t>2025-10-15T17:58:59Z</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1437,7 +1461,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>lat = 55.7553678, lng = 37.5147229</t>
+          <t>lat = 55.7872269, lng = 37.6708365</t>
         </is>
       </c>
     </row>
@@ -1449,27 +1473,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>321430932</t>
+          <t>306510959</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/321430932</t>
+          <t>https://cian.ru/rent/commercial/306510959</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Сдается офис  (А)</t>
+          <t>Сдается торговая площадь, 27,4 – 53,3 м²</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Москва , ЮАО , р-н Донской , Новоданиловская наб. , 12 На карте</t>
+          <t>Москва , ВАО , р-н Соколиная гора , Большая Семеновская ул. , 20 На карте</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Москва, Новоданиловская наб., 12</t>
+          <t>Москва, Большая Семеновская ул., 20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1481,13 +1505,13 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>55.6952425</v>
+        <v>55.7812139</v>
       </c>
       <c r="L15" t="n">
-        <v>37.6253471</v>
+        <v>37.7061209</v>
       </c>
       <c r="M15" t="n">
-        <v>143.8</v>
+        <v>53.3</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1498,7 +1522,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:41Z</t>
+          <t>2025-10-15T17:59:01Z</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1508,7 +1532,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>lat = 55.6952425, lng = 37.6253471</t>
+          <t>lat = 55.7812139, lng = 37.7061209</t>
         </is>
       </c>
     </row>
@@ -1520,27 +1544,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>314195371</t>
+          <t>321662338</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/314195371</t>
+          <t>https://cian.ru/rent/commercial/321662338</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Сдается торговая площадь, 195,9 м²</t>
+          <t>Сдается офис  (А)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Хамовники , Еропкинский пер. , 16с6 На карте</t>
+          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 12 На карте</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Москва, Еропкинский пер., 16с6</t>
+          <t>Москва, наб. Пресненская, 12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1552,13 +1576,13 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>55.7396356</v>
+        <v>55.7494518</v>
       </c>
       <c r="L16" t="n">
-        <v>37.5936706</v>
+        <v>37.5370134</v>
       </c>
       <c r="M16" t="n">
-        <v>195.9</v>
+        <v>86</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1569,7 +1593,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:44Z</t>
+          <t>2025-10-15T17:59:05Z</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1579,7 +1603,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>lat = 55.7396356, lng = 37.5936706</t>
+          <t>lat = 55.7494518, lng = 37.5370134</t>
         </is>
       </c>
     </row>
@@ -1591,27 +1615,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>322631008</t>
+          <t>322800584</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322631008</t>
+          <t>https://cian.ru/rent/commercial/322800584</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Сдается офис  (А)</t>
+          <t>Сдается офис  (B)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 6с2 На карте</t>
+          <t>Москва , ЗАО , р-н Тропарево-Никулино , Ленинский просп. , 158 На карте</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Москва, наб. Пресненская, 6с2</t>
+          <t>Москва, Ленинский просп., 158</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1623,13 +1647,13 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>55.7481581</v>
+        <v>55.6514491</v>
       </c>
       <c r="L17" t="n">
-        <v>37.5402226</v>
+        <v>37.4830886</v>
       </c>
       <c r="M17" t="n">
-        <v>107.1</v>
+        <v>56.8</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1640,7 +1664,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:47Z</t>
+          <t>2025-10-15T17:59:08Z</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1650,7 +1674,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>lat = 55.7481581, lng = 37.5402226</t>
+          <t>lat = 55.6514491, lng = 37.4830886</t>
         </is>
       </c>
     </row>
@@ -1662,27 +1686,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>322651949</t>
+          <t>322838931</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322651949</t>
+          <t>https://cian.ru/rent/commercial/322838931</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Сдается офис  (А)</t>
+          <t>Сдается офис  (B)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Москва , ЮЗАО , р-н Черемушки , Научный проезд , 17 На карте</t>
+          <t>Москва , ЗАО , р-н Тропарево-Никулино , Ленинский просп. , 158 На карте</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Москва, Научный проезд, 17</t>
+          <t>Москва, Ленинский просп., 158</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1694,13 +1718,13 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>55.6541476</v>
+        <v>55.6514491</v>
       </c>
       <c r="L18" t="n">
-        <v>37.5559185</v>
+        <v>37.4830886</v>
       </c>
       <c r="M18" t="n">
-        <v>128</v>
+        <v>55.7</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1711,7 +1735,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:50Z</t>
+          <t>2025-10-15T17:59:13Z</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1721,7 +1745,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>lat = 55.6541476, lng = 37.5559185</t>
+          <t>lat = 55.6514491, lng = 37.4830886</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1757,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>302691991</t>
+          <t>321893329</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/302691991</t>
+          <t>https://cian.ru/rent/commercial/321893329</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1748,12 +1772,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Пресненский , Малая Бронная ул. , 2С1 На карте</t>
+          <t>Москва , ЮАО , р-н Донской , ул. Орджоникидзе , 11С8 На карте</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Москва, Малая Бронная ул., 2С1</t>
+          <t>Москва, ул. Орджоникидзе, 11С8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1765,13 +1789,13 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>55.7590812</v>
+        <v>55.7085036</v>
       </c>
       <c r="L19" t="n">
-        <v>37.5981852</v>
+        <v>37.5930139</v>
       </c>
       <c r="M19" t="n">
-        <v>67.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1782,7 +1806,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2025-10-15T13:22:53Z</t>
+          <t>2025-10-15T17:59:14Z</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1792,7 +1816,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>lat = 55.7590812, lng = 37.5981852</t>
+          <t>lat = 55.7085036, lng = 37.5930139</t>
         </is>
       </c>
     </row>
@@ -1804,27 +1828,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>320590340</t>
+          <t>322800561</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/320590340</t>
+          <t>https://cian.ru/rent/commercial/322800561</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения  (B+)</t>
+          <t>Сдается офис  (B)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Москва , СВАО , р-н Алексеевский , просп. Мира , 102С17 На карте</t>
+          <t>Москва , ЗАО , р-н Тропарево-Никулино , Ленинский просп. , 158 На карте</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Москва, просп. Мира, 102С17</t>
+          <t>Москва, Ленинский просп., 158</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1836,13 +1860,13 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>55.7922782</v>
+        <v>55.6514491</v>
       </c>
       <c r="L20" t="n">
-        <v>37.6347502</v>
+        <v>37.4830886</v>
       </c>
       <c r="M20" t="n">
-        <v>110.1</v>
+        <v>111.3</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1853,7 +1877,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:02Z</t>
+          <t>2025-10-15T17:59:17Z</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1863,7 +1887,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>lat = 55.7922782, lng = 37.6347502</t>
+          <t>lat = 55.6514491, lng = 37.4830886</t>
         </is>
       </c>
     </row>
@@ -1875,12 +1899,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>318887321</t>
+          <t>319985587</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/318887321</t>
+          <t>https://cian.ru/rent/commercial/319985587</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1890,12 +1914,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Басманный , ул. Солянка , 1/2С1 На карте</t>
+          <t>Москва , САО , р-н Беговой , ул. 1-я Ямского Поля , 1к1 На карте</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Москва, ул. Солянка, 1/2С1</t>
+          <t>Москва, ул. 1-я Ямского Поля, 1к1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1906,14 +1930,10 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>55.7541665</v>
-      </c>
-      <c r="L21" t="n">
-        <v>37.6373791</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1924,7 +1944,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:04Z</t>
+          <t>2025-10-15T17:59:21Z</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1932,11 +1952,7 @@
           <t>active</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>lat = 55.7541665, lng = 37.6373791</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1946,27 +1962,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>322612971</t>
+          <t>320542453</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322612971</t>
+          <t>https://cian.ru/rent/commercial/320542453</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Сдается офис  (А)</t>
+          <t>Сдается помещение свободного назначения, 155 м²</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 12 На карте</t>
+          <t>Москва , ЗАО , р-н Филевский парк , Береговой проезд , 1Б На карте</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Москва, наб. Пресненская, 12</t>
+          <t>Москва, Береговой проезд, 1Б</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1978,13 +1994,13 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>55.7494518</v>
+        <v>55.7553678</v>
       </c>
       <c r="L22" t="n">
-        <v>37.5370134</v>
+        <v>37.5147229</v>
       </c>
       <c r="M22" t="n">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1995,7 +2011,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:11Z</t>
+          <t>2025-10-15T17:59:27Z</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2005,7 +2021,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>lat = 55.7494518, lng = 37.5370134</t>
+          <t>lat = 55.7553678, lng = 37.5147229</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2033,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>322572438</t>
+          <t>321430932</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322572438</t>
+          <t>https://cian.ru/rent/commercial/321430932</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2032,12 +2048,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 12 На карте</t>
+          <t>Москва , ЮАО , р-н Донской , Новоданиловская наб. , 12 На карте</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Москва, наб. Пресненская, 12</t>
+          <t>Москва, Новоданиловская наб., 12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2049,13 +2065,13 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>55.7494518</v>
+        <v>55.6952425</v>
       </c>
       <c r="L23" t="n">
-        <v>37.5370134</v>
+        <v>37.6253471</v>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>143.8</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2066,7 +2082,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:17Z</t>
+          <t>2025-10-15T17:59:32Z</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2076,7 +2092,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>lat = 55.7494518, lng = 37.5370134</t>
+          <t>lat = 55.6952425, lng = 37.6253471</t>
         </is>
       </c>
     </row>
@@ -2088,27 +2104,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>321468358</t>
+          <t>322651949</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/321468358</t>
+          <t>https://cian.ru/rent/commercial/322651949</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения  (B+)</t>
+          <t>Сдается офис  (А)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Москва , СВАО , р-н Марьина роща , ул. Сущевский Вал , 49 На карте</t>
+          <t>Москва , ЮЗАО , р-н Черемушки , Научный проезд , 17 На карте</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Москва, ул. Сущевский Вал, 49</t>
+          <t>Москва, Научный проезд, 17</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2120,13 +2136,13 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>55.7934303</v>
+        <v>55.6541476</v>
       </c>
       <c r="L24" t="n">
-        <v>37.6117842</v>
+        <v>37.5559185</v>
       </c>
       <c r="M24" t="n">
-        <v>53.5</v>
+        <v>128</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2137,7 +2153,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:20Z</t>
+          <t>2025-10-15T17:59:35Z</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2147,7 +2163,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>lat = 55.7934303, lng = 37.6117842</t>
+          <t>lat = 55.6541476, lng = 37.5559185</t>
         </is>
       </c>
     </row>
@@ -2159,27 +2175,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>322613340</t>
+          <t>314195371</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322613340</t>
+          <t>https://cian.ru/rent/commercial/314195371</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Сдается офис  (А)</t>
+          <t>Сдается торговая площадь, 195,9 м²</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 12 На карте</t>
+          <t>Москва , ЦАО , р-н Хамовники , Еропкинский пер. , 16с6 На карте</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Москва, наб. Пресненская, 12</t>
+          <t>Москва, Еропкинский пер., 16с6</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2191,13 +2207,13 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>55.7494518</v>
+        <v>55.7396356</v>
       </c>
       <c r="L25" t="n">
-        <v>37.5370134</v>
+        <v>37.5936706</v>
       </c>
       <c r="M25" t="n">
-        <v>146</v>
+        <v>195.9</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2208,7 +2224,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:23Z</t>
+          <t>2025-10-15T17:59:37Z</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2218,7 +2234,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>lat = 55.7494518, lng = 37.5370134</t>
+          <t>lat = 55.7396356, lng = 37.5936706</t>
         </is>
       </c>
     </row>
@@ -2230,27 +2246,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>304734141</t>
+          <t>322499376</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/304734141</t>
+          <t>https://cian.ru/rent/commercial/322499376</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 119,7 м²</t>
+          <t>Сдается помещение свободного назначения, 134,1 м²</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Москва , ЮАО , р-н Даниловский , Шагал жилой комплекс , 1-я очередь , к7 На карте</t>
+          <t>Москва , ЦАО , р-н Пресненский , ул. 1905 года , 9С2 На карте</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Москва, Шагал жилой комплекс, 1-я очередь, к7</t>
+          <t>Москва, ул. 1905 года, 9С2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2261,10 +2277,14 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>55.7642797</v>
+      </c>
+      <c r="L26" t="n">
+        <v>37.5602849</v>
+      </c>
       <c r="M26" t="n">
-        <v>119.7</v>
+        <v>134.1</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2275,7 +2295,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:25Z</t>
+          <t>2025-10-15T17:59:41Z</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2283,7 +2303,11 @@
           <t>active</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>lat = 55.7642797, lng = 37.5602849</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2293,27 +2317,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>322572336</t>
+          <t>318859804</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322572336</t>
+          <t>https://cian.ru/rent/commercial/318859804</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Сдается офис  (А)</t>
+          <t>Сдается помещение свободного назначения, 92,1 м²</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 12 На карте</t>
+          <t>Москва , ЮВАО , р-н Нижегородский , Рязанский просп. , 2/2к2 На карте</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Москва, наб. Пресненская, 12</t>
+          <t>Москва, Рязанский просп., 2/2к2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2325,24 +2349,28 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>55.7494518</v>
+        <v>55.7273581</v>
       </c>
       <c r="L27" t="n">
-        <v>37.5370134</v>
+        <v>37.7413317</v>
       </c>
       <c r="M27" t="n">
-        <v>198.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>249999</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2714.43</v>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:29Z</t>
+          <t>2025-10-15T17:59:44Z</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2352,7 +2380,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>lat = 55.7494518, lng = 37.5370134</t>
+          <t>lat = 55.7273581, lng = 37.7413317</t>
         </is>
       </c>
     </row>
@@ -2364,27 +2392,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>320510510</t>
+          <t>318887321</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/320510510</t>
+          <t>https://cian.ru/rent/commercial/318887321</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Сдается офис  (B)</t>
+          <t>Сдается офис  (А)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Басманный , Покровский бул. , 8С1 На карте</t>
+          <t>Москва , ЦАО , р-н Басманный , ул. Солянка , 1/2С1 На карте</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Москва, Покровский бул., 8С1</t>
+          <t>Москва, ул. Солянка, 1/2С1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2396,13 +2424,13 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>55.7572951</v>
+        <v>55.7541665</v>
       </c>
       <c r="L28" t="n">
-        <v>37.6465921</v>
+        <v>37.6373791</v>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2413,7 +2441,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:35Z</t>
+          <t>2025-10-15T17:59:46Z</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2423,7 +2451,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>lat = 55.7572951, lng = 37.6465921</t>
+          <t>lat = 55.7541665, lng = 37.6373791</t>
         </is>
       </c>
     </row>
@@ -2435,27 +2463,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>319958646</t>
+          <t>322012896</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/319958646</t>
+          <t>https://cian.ru/rent/commercial/322012896</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 75,6 м²</t>
+          <t>Сдается торговая площадь, 56,7 м²</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Москва , ЮАО , р-н Нагатино-Садовники , просп. Андропова , 30 На карте</t>
+          <t>Москва , ЗАО , р-н Очаково-Матвеевское , Озерная ул. , 42 На карте</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Москва, просп. Андропова, 30</t>
+          <t>Москва, Озерная ул., 42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2467,13 +2495,13 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>55.6791596</v>
+        <v>55.6716286</v>
       </c>
       <c r="L29" t="n">
-        <v>37.6624989</v>
+        <v>37.4460073</v>
       </c>
       <c r="M29" t="n">
-        <v>75.59999999999999</v>
+        <v>56.7</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2484,7 +2512,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:41Z</t>
+          <t>2025-10-15T17:59:51Z</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2494,7 +2522,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>lat = 55.6791596, lng = 37.6624989</t>
+          <t>lat = 55.6716286, lng = 37.4460073</t>
         </is>
       </c>
     </row>
@@ -2506,27 +2534,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>318663511</t>
+          <t>302691991</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/318663511</t>
+          <t>https://cian.ru/rent/commercial/302691991</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 110 м²</t>
+          <t>Сдается офис  (B)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Хамовники , ул. Пречистенка , 19/11С2 На карте</t>
+          <t>Москва , ЦАО , р-н Пресненский , Малая Бронная ул. , 2С1 На карте</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Москва, ул. Пречистенка, 19/11С2</t>
+          <t>Москва, Малая Бронная ул., 2С1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2538,13 +2566,13 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>55.7409135</v>
+        <v>55.7590812</v>
       </c>
       <c r="L30" t="n">
-        <v>37.5935689</v>
+        <v>37.5981852</v>
       </c>
       <c r="M30" t="n">
-        <v>110</v>
+        <v>67.2</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2555,7 +2583,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:43Z</t>
+          <t>2025-10-15T17:59:54Z</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2565,7 +2593,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>lat = 55.7409135, lng = 37.5935689</t>
+          <t>lat = 55.7590812, lng = 37.5981852</t>
         </is>
       </c>
     </row>
@@ -2577,27 +2605,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>322228519</t>
+          <t>321468358</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322228519</t>
+          <t>https://cian.ru/rent/commercial/321468358</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Сдается склад  (B)</t>
+          <t>Сдается помещение свободного назначения  (B+)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Москва , ЮАО , р-н Донской , ул. Орджоникидзе , 11С6 На карте</t>
+          <t>Москва , СВАО , р-н Марьина роща , ул. Сущевский Вал , 49 На карте</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Москва, ул. Орджоникидзе, 11С6</t>
+          <t>Москва, ул. Сущевский Вал, 49</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2609,13 +2637,13 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>55.7077044</v>
+        <v>55.7934303</v>
       </c>
       <c r="L31" t="n">
-        <v>37.5930648</v>
+        <v>37.6117842</v>
       </c>
       <c r="M31" t="n">
-        <v>56.5</v>
+        <v>53.5</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2626,7 +2654,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:45Z</t>
+          <t>2025-10-15T17:59:59Z</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2636,7 +2664,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>lat = 55.7077044, lng = 37.5930648</t>
+          <t>lat = 55.7934303, lng = 37.6117842</t>
         </is>
       </c>
     </row>
@@ -2648,27 +2676,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>314720143</t>
+          <t>322572438</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/314720143</t>
+          <t>https://cian.ru/rent/commercial/322572438</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 55 м²</t>
+          <t>Сдается офис  (А)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Москва , САО , р-н Хорошевский , Хорошевское ш. , 11 На карте</t>
+          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 12 На карте</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Москва, Хорошевское ш., 11</t>
+          <t>Москва, наб. Пресненская, 12</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2680,13 +2708,13 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>55.7799334</v>
+        <v>55.7494518</v>
       </c>
       <c r="L32" t="n">
-        <v>37.521777</v>
+        <v>37.5370134</v>
       </c>
       <c r="M32" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2697,7 +2725,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:47Z</t>
+          <t>2025-10-15T18:00:01Z</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2707,7 +2735,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>lat = 55.7799334, lng = 37.521777</t>
+          <t>lat = 55.7494518, lng = 37.5370134</t>
         </is>
       </c>
     </row>
@@ -2719,27 +2747,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>312640352</t>
+          <t>322612971</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/312640352</t>
+          <t>https://cian.ru/rent/commercial/322612971</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Сдается офис  (B+)</t>
+          <t>Сдается офис  (А)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Хамовники , Саввинская наб. , 23С1 На карте</t>
+          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 12 На карте</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Москва, Саввинская наб., 23С1</t>
+          <t>Москва, наб. Пресненская, 12</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2751,13 +2779,13 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>55.7315775</v>
+        <v>55.7494518</v>
       </c>
       <c r="L33" t="n">
-        <v>37.5595289</v>
+        <v>37.5370134</v>
       </c>
       <c r="M33" t="n">
-        <v>134.2</v>
+        <v>96</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2768,7 +2796,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:49Z</t>
+          <t>2025-10-15T18:00:03Z</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2778,7 +2806,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>lat = 55.7315775, lng = 37.5595289</t>
+          <t>lat = 55.7494518, lng = 37.5370134</t>
         </is>
       </c>
     </row>
@@ -2790,27 +2818,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>322106244</t>
+          <t>304734141</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322106244</t>
+          <t>https://cian.ru/rent/commercial/304734141</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 89 м²</t>
+          <t>Сдается помещение свободного назначения, 119,7 м²</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Замоскворечье , Люсиновская ул. , 6 На карте</t>
+          <t>Москва , ЮАО , р-н Даниловский , Шагал жилой комплекс , 1-я очередь , к7 На карте</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Москва, Люсиновская ул., 6</t>
+          <t>Москва, Шагал жилой комплекс, 1-я очередь, к7</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2821,14 +2849,10 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>55.7267491</v>
-      </c>
-      <c r="L34" t="n">
-        <v>37.6221254</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>89</v>
+        <v>119.7</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2839,7 +2863,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:51Z</t>
+          <t>2025-10-15T18:00:06Z</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2847,11 +2871,7 @@
           <t>active</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>lat = 55.7267491, lng = 37.6221254</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2861,27 +2881,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>283377456</t>
+          <t>322572336</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/283377456</t>
+          <t>https://cian.ru/rent/commercial/322572336</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 171,9 м²</t>
+          <t>Сдается офис  (А)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Москва , ЮАО , р-н Даниловский , бул. Братьев Весниных , 1 На карте</t>
+          <t>Москва , ЦАО , р-н Пресненский , наб. Пресненская , 12 На карте</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Москва, бул. Братьев Весниных, 1</t>
+          <t>Москва, наб. Пресненская, 12</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2893,13 +2913,13 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>55.6981405</v>
+        <v>55.7494518</v>
       </c>
       <c r="L35" t="n">
-        <v>37.6400943</v>
+        <v>37.5370134</v>
       </c>
       <c r="M35" t="n">
-        <v>171.9</v>
+        <v>198.2</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2910,7 +2930,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:57Z</t>
+          <t>2025-10-15T18:00:09Z</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2920,7 +2940,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>lat = 55.6981405, lng = 37.6400943</t>
+          <t>lat = 55.7494518, lng = 37.5370134</t>
         </is>
       </c>
     </row>
@@ -2932,27 +2952,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>322143613</t>
+          <t>319958646</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322143613</t>
+          <t>https://cian.ru/rent/commercial/319958646</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Сдается офис  (B)</t>
+          <t>Сдается помещение свободного назначения, 75,6 м²</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Москва , ЮАО , р-н Донской , ул. Вавилова , 1 На карте</t>
+          <t>Москва , ЮАО , р-н Нагатино-Садовники , просп. Андропова , 30 На карте</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Москва, ул. Вавилова, 1</t>
+          <t>Москва, просп. Андропова, 30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2964,13 +2984,13 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>55.6838662</v>
+        <v>55.6791596</v>
       </c>
       <c r="L36" t="n">
-        <v>37.5493203</v>
+        <v>37.6624989</v>
       </c>
       <c r="M36" t="n">
-        <v>144.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2981,7 +3001,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2025-10-15T13:23:58Z</t>
+          <t>2025-10-15T18:00:15Z</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2991,7 +3011,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>lat = 55.6838662, lng = 37.5493203</t>
+          <t>lat = 55.6791596, lng = 37.6624989</t>
         </is>
       </c>
     </row>
@@ -3003,27 +3023,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>298518597</t>
+          <t>322874428</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/298518597</t>
+          <t>https://cian.ru/rent/commercial/322874428</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 57,7 м²</t>
+          <t>Сдается офис  (B+)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Москва , ЮАО , р-н Даниловский , бул. Братьев Весниных , 1 На карте</t>
+          <t>Москва , ЦАО , р-н Таганский , Москворецкая наб. , 7С2 На карте</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Москва, бул. Братьев Весниных, 1</t>
+          <t>Москва, Москворецкая наб., 7С2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3035,13 +3055,13 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>55.6981405</v>
+        <v>55.7487148</v>
       </c>
       <c r="L37" t="n">
-        <v>37.6400943</v>
+        <v>37.6373217</v>
       </c>
       <c r="M37" t="n">
-        <v>57.7</v>
+        <v>193</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -3052,7 +3072,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2025-10-15T13:24:01Z</t>
+          <t>2025-10-15T18:00:17Z</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3062,7 +3082,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>lat = 55.6981405, lng = 37.6400943</t>
+          <t>lat = 55.7487148, lng = 37.6373217</t>
         </is>
       </c>
     </row>
@@ -3074,27 +3094,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>294078106</t>
+          <t>286231325</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/294078106</t>
+          <t>https://cian.ru/rent/commercial/286231325</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Сдается офис, 193 м²</t>
+          <t>Сдается торговая площадь  (B)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Москва , ЦАО , р-н Таганский , Москворецкая наб. , 7С2 На карте</t>
+          <t>Москва , СВАО , р-н Бутырский , Складочная ул. , 1С1 На карте</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Москва, Москворецкая наб., 7С2</t>
+          <t>Москва, Складочная ул., 1С1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3106,13 +3126,13 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>55.7487148</v>
+        <v>55.8010954</v>
       </c>
       <c r="L38" t="n">
-        <v>37.6373217</v>
+        <v>37.5946113</v>
       </c>
       <c r="M38" t="n">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3123,7 +3143,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2025-10-15T13:24:04Z</t>
+          <t>2025-10-15T18:00:18Z</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3133,7 +3153,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>lat = 55.7487148, lng = 37.6373217</t>
+          <t>lat = 55.8010954, lng = 37.5946113</t>
         </is>
       </c>
     </row>
@@ -3145,27 +3165,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>322491356</t>
+          <t>314720143</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322491356</t>
+          <t>https://cian.ru/rent/commercial/314720143</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 60 м²</t>
+          <t>Сдается помещение свободного назначения, 55 м²</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Москва , ЮЗАО , р-н Ломоносовский , ул. Вавилова , 81 На карте</t>
+          <t>Москва , САО , р-н Хорошевский , Хорошевское ш. , 11 На карте</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Москва, ул. Вавилова, 81</t>
+          <t>Москва, Хорошевское ш., 11</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3177,13 +3197,13 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>55.680708</v>
+        <v>55.7799334</v>
       </c>
       <c r="L39" t="n">
-        <v>37.5480408</v>
+        <v>37.521777</v>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3194,7 +3214,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2025-10-15T13:24:06Z</t>
+          <t>2025-10-15T18:00:24Z</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3204,7 +3224,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>lat = 55.680708, lng = 37.5480408</t>
+          <t>lat = 55.7799334, lng = 37.521777</t>
         </is>
       </c>
     </row>
@@ -3216,27 +3236,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>322490412</t>
+          <t>298518597</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://cian.ru/rent/commercial/322490412</t>
+          <t>https://cian.ru/rent/commercial/298518597</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Сдается помещение свободного назначения, 100 м²</t>
+          <t>Сдается помещение свободного назначения, 57,7 м²</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Москва , ЮЗАО , р-н Ломоносовский , ул. Вавилова , 81 На карте</t>
+          <t>Москва , ЮАО , р-н Даниловский , бул. Братьев Весниных , 1 На карте</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Москва, ул. Вавилова, 81</t>
+          <t>Москва, бул. Братьев Весниных, 1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3248,13 +3268,13 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>55.680708</v>
+        <v>55.6981405</v>
       </c>
       <c r="L40" t="n">
-        <v>37.5480408</v>
+        <v>37.6400943</v>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>57.7</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3265,7 +3285,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2025-10-15T13:24:08Z</t>
+          <t>2025-10-15T18:00:27Z</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3275,7 +3295,575 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>lat = 55.680708, lng = 37.5480408</t>
+          <t>lat = 55.6981405, lng = 37.6400943</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>cian</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>322228519</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://cian.ru/rent/commercial/322228519</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Сдается склад  (B)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Москва , ЮАО , р-н Донской , ул. Орджоникидзе , 11С6 На карте</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Москва, ул. Орджоникидзе, 11С6</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>55.7077044</v>
+      </c>
+      <c r="L41" t="n">
+        <v>37.5930648</v>
+      </c>
+      <c r="M41" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2025-10-15T18:00:35Z</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>lat = 55.7077044, lng = 37.5930648</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>cian</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>322106244</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://cian.ru/rent/commercial/322106244</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Сдается помещение свободного назначения, 89 м²</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Москва , ЦАО , р-н Замоскворечье , Люсиновская ул. , 6 На карте</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Москва, Люсиновская ул., 6</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>55.7267491</v>
+      </c>
+      <c r="L42" t="n">
+        <v>37.6221254</v>
+      </c>
+      <c r="M42" t="n">
+        <v>89</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2025-10-15T18:00:37Z</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>lat = 55.7267491, lng = 37.6221254</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>cian</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>312640352</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://cian.ru/rent/commercial/312640352</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Сдается офис  (B+)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Москва , ЦАО , р-н Хамовники , Саввинская наб. , 23С1 На карте</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Москва, Саввинская наб., 23С1</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>55.7315775</v>
+      </c>
+      <c r="L43" t="n">
+        <v>37.5595289</v>
+      </c>
+      <c r="M43" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2025-10-15T18:00:40Z</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>lat = 55.7315775, lng = 37.5595289</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>cian</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>322603541</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://cian.ru/rent/commercial/322603541</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Сдается офис  (B)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Москва , СЗАО , р-н Щукино , Живописная ул. , 50 На карте</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Москва, Живописная ул., 50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>55.8015051</v>
+      </c>
+      <c r="L44" t="n">
+        <v>37.4511412</v>
+      </c>
+      <c r="M44" t="n">
+        <v>164</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>2025-10-15T18:00:42Z</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>lat = 55.8015051, lng = 37.4511412</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cian</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>318199093</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://cian.ru/rent/commercial/318199093</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Сдается торговая площадь, 63 м²</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Москва , ЮЗАО , р-н Гагаринский , Ломоносовский просп. , 18 На карте</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Москва, Ломоносовский просп., 18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>55.6925083</v>
+      </c>
+      <c r="L45" t="n">
+        <v>37.5398156</v>
+      </c>
+      <c r="M45" t="n">
+        <v>63</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2025-10-15T18:00:44Z</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>lat = 55.6925083, lng = 37.5398156</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>cian</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>294078106</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://cian.ru/rent/commercial/294078106</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Сдается офис, 193 м²</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Москва , ЦАО , р-н Таганский , Москворецкая наб. , 7С2 На карте</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Москва, Москворецкая наб., 7С2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>55.7487148</v>
+      </c>
+      <c r="L46" t="n">
+        <v>37.6373217</v>
+      </c>
+      <c r="M46" t="n">
+        <v>193</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>2025-10-15T18:00:47Z</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>lat = 55.7487148, lng = 37.6373217</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>cian</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>322261539</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://cian.ru/rent/commercial/322261539</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Сдается помещение свободного назначения, 54,8 м²</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Москва , СЗАО , р-н Хорошево-Мневники , ул. Генерала Глаголева , 14Ак1 На карте</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Москва, ул. Генерала Глаголева, 14Ак1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>55.7861182</v>
+      </c>
+      <c r="L47" t="n">
+        <v>37.4642542</v>
+      </c>
+      <c r="M47" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>2025-10-15T18:00:49Z</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>lat = 55.7861182, lng = 37.4642542</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cian</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>319282859</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://cian.ru/rent/commercial/319282859</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Сдается офис  (B+)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Москва , ЦАО , р-н Тверской , 2-я Брестская ул. , 8 На карте</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Москва, 2-я Брестская ул., 8</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>55.7712729</v>
+      </c>
+      <c r="L48" t="n">
+        <v>37.5907513</v>
+      </c>
+      <c r="M48" t="n">
+        <v>180</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2025-10-15T18:00:52Z</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>lat = 55.7712729, lng = 37.5907513</t>
         </is>
       </c>
     </row>
